--- a/predictions полгода до/Прогнозы_ETS_EA12.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_EA12.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22252389.5046194</v>
+        <v>22723570.90202022</v>
       </c>
       <c r="C2" t="n">
-        <v>23890938.17906576</v>
+        <v>19120981.28055226</v>
       </c>
       <c r="D2" t="n">
-        <v>21051243.05733074</v>
+        <v>14394540.39077767</v>
       </c>
       <c r="E2" t="n">
-        <v>17865557.22526051</v>
+        <v>18869126.1911058</v>
       </c>
       <c r="F2" t="n">
-        <v>22569420.10860573</v>
+        <v>18337805.30968524</v>
       </c>
       <c r="G2" t="n">
-        <v>22442951.56522329</v>
+        <v>14195986.6143455</v>
       </c>
       <c r="H2" t="n">
-        <v>18583256.41202331</v>
+        <v>19604217.87566653</v>
       </c>
       <c r="I2" t="n">
-        <v>23780610.49810372</v>
+        <v>18304098.33836766</v>
       </c>
       <c r="J2" t="n">
-        <v>22876244.65968584</v>
+        <v>16558807.98731753</v>
       </c>
       <c r="K2" t="n">
-        <v>21392844.73051741</v>
+        <v>12659025.79585948</v>
       </c>
       <c r="L2" t="n">
-        <v>18260913.52202142</v>
+        <v>15794300.56859636</v>
       </c>
       <c r="M2" t="n">
-        <v>21714715.81340268</v>
+        <v>14463802.56884224</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12368078.78870601</v>
+        <v>9442063.734308226</v>
       </c>
       <c r="C3" t="n">
-        <v>13129130.54144301</v>
+        <v>10005389.90137548</v>
       </c>
       <c r="D3" t="n">
-        <v>13901508.2334131</v>
+        <v>10564930.35808885</v>
       </c>
       <c r="E3" t="n">
-        <v>14669806.05651819</v>
+        <v>11119148.09419885</v>
       </c>
       <c r="F3" t="n">
-        <v>15430063.27864755</v>
+        <v>11693943.43546231</v>
       </c>
       <c r="G3" t="n">
-        <v>16214797.66860122</v>
+        <v>12204594.66273628</v>
       </c>
       <c r="H3" t="n">
-        <v>16917145.12410713</v>
+        <v>12764502.06420091</v>
       </c>
       <c r="I3" t="n">
-        <v>17674982.88442327</v>
+        <v>13387456.8896369</v>
       </c>
       <c r="J3" t="n">
-        <v>18520629.83406143</v>
+        <v>13861998.55423503</v>
       </c>
       <c r="K3" t="n">
-        <v>19185115.55693619</v>
+        <v>14447641.70611777</v>
       </c>
       <c r="L3" t="n">
-        <v>19976880.48674728</v>
+        <v>14971314.10703471</v>
       </c>
       <c r="M3" t="n">
-        <v>20699026.81726773</v>
+        <v>15516995.44511872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5163601.026720511</v>
+        <v>11669477.76540094</v>
       </c>
       <c r="C4" t="n">
-        <v>5219421.445083555</v>
+        <v>11739468.53636254</v>
       </c>
       <c r="D4" t="n">
-        <v>5275672.008093267</v>
+        <v>11808987.83985049</v>
       </c>
       <c r="E4" t="n">
-        <v>5331449.553186777</v>
+        <v>11878568.30834591</v>
       </c>
       <c r="F4" t="n">
-        <v>5387288.407979496</v>
+        <v>11948327.21772862</v>
       </c>
       <c r="G4" t="n">
-        <v>5443306.373057922</v>
+        <v>12017758.2290616</v>
       </c>
       <c r="H4" t="n">
-        <v>5498995.270077271</v>
+        <v>12087520.97238698</v>
       </c>
       <c r="I4" t="n">
-        <v>5555017.057239939</v>
+        <v>12157036.07880589</v>
       </c>
       <c r="J4" t="n">
-        <v>5610790.325575616</v>
+        <v>12227015.41005371</v>
       </c>
       <c r="K4" t="n">
-        <v>5667021.470682177</v>
+        <v>12296549.77520788</v>
       </c>
       <c r="L4" t="n">
-        <v>5722754.67702358</v>
+        <v>12366500.18094511</v>
       </c>
       <c r="M4" t="n">
-        <v>5778870.346524863</v>
+        <v>12436113.34722958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3973670.99137822</v>
+        <v>20009559.01429138</v>
       </c>
       <c r="C5" t="n">
-        <v>5585075.280202809</v>
+        <v>21677483.79600989</v>
       </c>
       <c r="D5" t="n">
-        <v>7196479.568432877</v>
+        <v>22315931.96191265</v>
       </c>
       <c r="E5" t="n">
-        <v>8807883.856583936</v>
+        <v>25281582.93615468</v>
       </c>
       <c r="F5" t="n">
-        <v>10419288.14473481</v>
+        <v>47010581.25885329</v>
       </c>
       <c r="G5" t="n">
-        <v>12030692.43288566</v>
+        <v>16144209.35208042</v>
       </c>
       <c r="H5" t="n">
-        <v>13642096.72103559</v>
+        <v>27486685.32932871</v>
       </c>
       <c r="I5" t="n">
-        <v>15253501.03127093</v>
+        <v>26903099.43412708</v>
       </c>
       <c r="J5" t="n">
-        <v>16864905.41610885</v>
+        <v>29916533.1206923</v>
       </c>
       <c r="K5" t="n">
-        <v>18476317.51202445</v>
+        <v>34557961.77572767</v>
       </c>
       <c r="L5" t="n">
-        <v>20087772.67021343</v>
+        <v>33016662.01241893</v>
       </c>
       <c r="M5" t="n">
-        <v>21699212.45796864</v>
+        <v>34055737.52681652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4830252.729311823</v>
+        <v>1927993.822698168</v>
       </c>
       <c r="C6" t="n">
-        <v>4687328.157684693</v>
+        <v>2608919.833244598</v>
       </c>
       <c r="D6" t="n">
-        <v>5557546.405044302</v>
+        <v>995133.5699287006</v>
       </c>
       <c r="E6" t="n">
-        <v>6260493.203240969</v>
+        <v>3307512.697322126</v>
       </c>
       <c r="F6" t="n">
-        <v>7950916.381072758</v>
+        <v>1741288.582442393</v>
       </c>
       <c r="G6" t="n">
-        <v>24657909.59325155</v>
+        <v>1402509.37334807</v>
       </c>
       <c r="H6" t="n">
-        <v>3305458.914955892</v>
+        <v>3476671.406993279</v>
       </c>
       <c r="I6" t="n">
-        <v>8587521.619720973</v>
+        <v>3953362.883102706</v>
       </c>
       <c r="J6" t="n">
-        <v>6065324.236614356</v>
+        <v>2611617.661178584</v>
       </c>
       <c r="K6" t="n">
-        <v>6935165.00828599</v>
+        <v>6389418.833954191</v>
       </c>
       <c r="L6" t="n">
-        <v>11924715.94210575</v>
+        <v>1547583.460061425</v>
       </c>
       <c r="M6" t="n">
-        <v>9363176.944960337</v>
+        <v>3000301.535741207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2062207.720832029</v>
+        <v>8513711.57794839</v>
       </c>
       <c r="C7" t="n">
-        <v>2406058.17372485</v>
+        <v>8632134.149286395</v>
       </c>
       <c r="D7" t="n">
-        <v>3096269.996281665</v>
+        <v>8751249.860475224</v>
       </c>
       <c r="E7" t="n">
-        <v>3128756.93302799</v>
+        <v>8868918.333596127</v>
       </c>
       <c r="F7" t="n">
-        <v>3292358.958266118</v>
+        <v>8988236.994250299</v>
       </c>
       <c r="G7" t="n">
-        <v>4902819.787182705</v>
+        <v>9106285.405397473</v>
       </c>
       <c r="H7" t="n">
-        <v>1775057.879569506</v>
+        <v>9226294.419204555</v>
       </c>
       <c r="I7" t="n">
-        <v>3620067.856313407</v>
+        <v>9345067.238130713</v>
       </c>
       <c r="J7" t="n">
-        <v>3644789.28569199</v>
+        <v>9462142.883635974</v>
       </c>
       <c r="K7" t="n">
-        <v>4039539.554063726</v>
+        <v>9581316.944473548</v>
       </c>
       <c r="L7" t="n">
-        <v>2955753.819734128</v>
+        <v>9698807.633969033</v>
       </c>
       <c r="M7" t="n">
-        <v>4602758.24045709</v>
+        <v>9817935.321282592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1638172.15958138</v>
+        <v>18382407.97471943</v>
       </c>
       <c r="C8" t="n">
-        <v>1327853.647740624</v>
+        <v>21952052.88682306</v>
       </c>
       <c r="D8" t="n">
-        <v>1128024.550249239</v>
+        <v>20041239.39140543</v>
       </c>
       <c r="E8" t="n">
-        <v>1383342.427561692</v>
+        <v>20410092.41793439</v>
       </c>
       <c r="F8" t="n">
-        <v>1758977.457520872</v>
+        <v>27616414.85555816</v>
       </c>
       <c r="G8" t="n">
-        <v>1757222.225841136</v>
+        <v>14862226.09607796</v>
       </c>
       <c r="H8" t="n">
-        <v>875499.0027055392</v>
+        <v>19189300.50360519</v>
       </c>
       <c r="I8" t="n">
-        <v>1264597.610847117</v>
+        <v>20266973.8392231</v>
       </c>
       <c r="J8" t="n">
-        <v>1249204.894935121</v>
+        <v>20075879.73933445</v>
       </c>
       <c r="K8" t="n">
-        <v>1302422.912995792</v>
+        <v>19310559.20823789</v>
       </c>
       <c r="L8" t="n">
-        <v>1342939.386035634</v>
+        <v>22261671.22725129</v>
       </c>
       <c r="M8" t="n">
-        <v>1417354.426441434</v>
+        <v>21303439.45036267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2635700.489232906</v>
+        <v>29912567.00181419</v>
       </c>
       <c r="C9" t="n">
-        <v>2636037.468767539</v>
+        <v>28974571.01220844</v>
       </c>
       <c r="D9" t="n">
-        <v>2636374.448234765</v>
+        <v>28642051.32705237</v>
       </c>
       <c r="E9" t="n">
-        <v>2636711.427701987</v>
+        <v>28837356.50426612</v>
       </c>
       <c r="F9" t="n">
-        <v>2637048.407167539</v>
+        <v>38421100.96017706</v>
       </c>
       <c r="G9" t="n">
-        <v>2637385.386556125</v>
+        <v>22956978.29347044</v>
       </c>
       <c r="H9" t="n">
-        <v>2637722.322895708</v>
+        <v>23598915.00322276</v>
       </c>
       <c r="I9" t="n">
-        <v>2638158.043530189</v>
+        <v>31514825.34794047</v>
       </c>
       <c r="J9" t="n">
-        <v>2638523.364243199</v>
+        <v>30923561.44596631</v>
       </c>
       <c r="K9" t="n">
-        <v>2638789.361672453</v>
+        <v>34491045.44294849</v>
       </c>
       <c r="L9" t="n">
-        <v>2639232.562451891</v>
+        <v>35874704.42081473</v>
       </c>
       <c r="M9" t="n">
-        <v>2639237.287083855</v>
+        <v>35103162.07334286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3440811.079127602</v>
+        <v>27358099.93640101</v>
       </c>
       <c r="C10" t="n">
-        <v>4808168.681159645</v>
+        <v>32852507.85896463</v>
       </c>
       <c r="D10" t="n">
-        <v>5199084.713427436</v>
+        <v>38346929.69346981</v>
       </c>
       <c r="E10" t="n">
-        <v>4075773.067326043</v>
+        <v>43841177.70309236</v>
       </c>
       <c r="F10" t="n">
-        <v>4842826.647639502</v>
+        <v>49335664.91002851</v>
       </c>
       <c r="G10" t="n">
-        <v>8528186.37223234</v>
+        <v>54829564.10173684</v>
       </c>
       <c r="H10" t="n">
-        <v>2867210.753335819</v>
+        <v>60324253.30844124</v>
       </c>
       <c r="I10" t="n">
-        <v>4983619.663281501</v>
+        <v>65819079.80523765</v>
       </c>
       <c r="J10" t="n">
-        <v>6197129.76174059</v>
+        <v>71313439.07818182</v>
       </c>
       <c r="K10" t="n">
-        <v>6990693.886562156</v>
+        <v>76807400.66985455</v>
       </c>
       <c r="L10" t="n">
-        <v>6680493.588489028</v>
+        <v>82301263.66128489</v>
       </c>
       <c r="M10" t="n">
-        <v>5941727.655458613</v>
+        <v>87796528.66065651</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3856908.360020269</v>
+        <v>15932416.1647506</v>
       </c>
       <c r="C11" t="n">
-        <v>2370375.851509443</v>
+        <v>16525330.56149639</v>
       </c>
       <c r="D11" t="n">
-        <v>3173395.49385978</v>
+        <v>17118078.16775832</v>
       </c>
       <c r="E11" t="n">
-        <v>1153251.092565337</v>
+        <v>17710424.1517785</v>
       </c>
       <c r="F11" t="n">
-        <v>5233702.578315454</v>
+        <v>18302666.86426951</v>
       </c>
       <c r="G11" t="n">
-        <v>1913233.864267589</v>
+        <v>18895614.62586135</v>
       </c>
       <c r="H11" t="n">
-        <v>1995180.616171093</v>
+        <v>19488725.7788655</v>
       </c>
       <c r="I11" t="n">
-        <v>3261003.236101648</v>
+        <v>20081123.9992225</v>
       </c>
       <c r="J11" t="n">
-        <v>3377519.324997225</v>
+        <v>20673999.15214294</v>
       </c>
       <c r="K11" t="n">
-        <v>2413701.324047644</v>
+        <v>21266521.68172947</v>
       </c>
       <c r="L11" t="n">
-        <v>10014124.10955745</v>
+        <v>21859758.85203846</v>
       </c>
       <c r="M11" t="n">
-        <v>208634.1754178964</v>
+        <v>22451904.2213993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>222726.347675447</v>
+        <v>40928477.39924032</v>
       </c>
       <c r="C12" t="n">
-        <v>-392461.0777322295</v>
+        <v>46685957.12980331</v>
       </c>
       <c r="D12" t="n">
-        <v>-576332.1602549086</v>
+        <v>51116408.4236717</v>
       </c>
       <c r="E12" t="n">
-        <v>-835605.4184033948</v>
+        <v>48370613.71667691</v>
       </c>
       <c r="F12" t="n">
-        <v>-806231.7796230459</v>
+        <v>41161975.13787129</v>
       </c>
       <c r="G12" t="n">
-        <v>-708252.6542000587</v>
+        <v>41348992.59248191</v>
       </c>
       <c r="H12" t="n">
-        <v>-1185422.211933396</v>
+        <v>43731261.22831883</v>
       </c>
       <c r="I12" t="n">
-        <v>-300448.7388251871</v>
+        <v>46386847.02336872</v>
       </c>
       <c r="J12" t="n">
-        <v>363338.2459980892</v>
+        <v>42432208.97703233</v>
       </c>
       <c r="K12" t="n">
-        <v>-299993.1980724996</v>
+        <v>38632370.73971577</v>
       </c>
       <c r="L12" t="n">
-        <v>-367234.5452747649</v>
+        <v>43815573.92967223</v>
       </c>
       <c r="M12" t="n">
-        <v>-618698.289449645</v>
+        <v>48579633.567734</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1493504.81632325</v>
+        <v>48012699.07914504</v>
       </c>
       <c r="C13" t="n">
-        <v>1659584.867707011</v>
+        <v>45213235.30280421</v>
       </c>
       <c r="D13" t="n">
-        <v>1825785.132493993</v>
+        <v>50091091.44957855</v>
       </c>
       <c r="E13" t="n">
-        <v>2000938.146009824</v>
+        <v>44006757.52278828</v>
       </c>
       <c r="F13" t="n">
-        <v>2161637.571153672</v>
+        <v>42622334.19469994</v>
       </c>
       <c r="G13" t="n">
-        <v>2332817.422051872</v>
+        <v>35309086.55260444</v>
       </c>
       <c r="H13" t="n">
-        <v>2498232.056608914</v>
+        <v>40294166.15877061</v>
       </c>
       <c r="I13" t="n">
-        <v>2666736.21039101</v>
+        <v>47435291.76135679</v>
       </c>
       <c r="J13" t="n">
-        <v>2844607.938695909</v>
+        <v>37143487.4828336</v>
       </c>
       <c r="K13" t="n">
-        <v>3007598.509983449</v>
+        <v>36585837.81131074</v>
       </c>
       <c r="L13" t="n">
-        <v>3187747.552432941</v>
+        <v>41438713.08008549</v>
       </c>
       <c r="M13" t="n">
-        <v>3344234.53873371</v>
+        <v>50934044.64009581</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>137166.7794103648</v>
+        <v>3181172.406661191</v>
       </c>
       <c r="C14" t="n">
-        <v>233990.6344878314</v>
+        <v>4322524.796018861</v>
       </c>
       <c r="D14" t="n">
-        <v>309736.2020280416</v>
+        <v>5463877.185446406</v>
       </c>
       <c r="E14" t="n">
-        <v>438269.808938319</v>
+        <v>6605229.574964436</v>
       </c>
       <c r="F14" t="n">
-        <v>461321.6667556741</v>
+        <v>7746582.012976305</v>
       </c>
       <c r="G14" t="n">
-        <v>577654.7911292014</v>
+        <v>8887934.237198608</v>
       </c>
       <c r="H14" t="n">
-        <v>650534.0770545906</v>
+        <v>10029310.41502331</v>
       </c>
       <c r="I14" t="n">
-        <v>802766.5226784659</v>
+        <v>11170629.95163118</v>
       </c>
       <c r="J14" t="n">
-        <v>903086.0785165383</v>
+        <v>12311974.46752332</v>
       </c>
       <c r="K14" t="n">
-        <v>902103.0764387308</v>
+        <v>13453337.39217735</v>
       </c>
       <c r="L14" t="n">
-        <v>959003.6484996747</v>
+        <v>14594769.10939809</v>
       </c>
       <c r="M14" t="n">
-        <v>1074737.598193489</v>
+        <v>15736099.21823886</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1267851.995409615</v>
+        <v>3911488.378274058</v>
       </c>
       <c r="C15" t="n">
-        <v>930293.0762099719</v>
+        <v>3835092.518824305</v>
       </c>
       <c r="D15" t="n">
-        <v>989262.6527724653</v>
+        <v>3865311.991660257</v>
       </c>
       <c r="E15" t="n">
-        <v>1120608.963922027</v>
+        <v>4128680.634114844</v>
       </c>
       <c r="F15" t="n">
-        <v>1125547.516080137</v>
+        <v>4065086.902450269</v>
       </c>
       <c r="G15" t="n">
-        <v>1872298.432521055</v>
+        <v>4082863.271352445</v>
       </c>
       <c r="H15" t="n">
-        <v>1584375.514647253</v>
+        <v>4144211.917454642</v>
       </c>
       <c r="I15" t="n">
-        <v>1281120.544542683</v>
+        <v>4533282.951774695</v>
       </c>
       <c r="J15" t="n">
-        <v>1337676.460490077</v>
+        <v>4663927.465133235</v>
       </c>
       <c r="K15" t="n">
-        <v>1530156.574990577</v>
+        <v>4345082.038573566</v>
       </c>
       <c r="L15" t="n">
-        <v>1368418.09590781</v>
+        <v>4524389.603482806</v>
       </c>
       <c r="M15" t="n">
-        <v>1737737.3087115</v>
+        <v>4362234.864807102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1292588.72624146</v>
+        <v>9034582.082027588</v>
       </c>
       <c r="C16" t="n">
-        <v>1444129.329095601</v>
+        <v>14893505.93577091</v>
       </c>
       <c r="D16" t="n">
-        <v>1597142.589075466</v>
+        <v>14014757.70592248</v>
       </c>
       <c r="E16" t="n">
-        <v>1750669.126218127</v>
+        <v>17359341.21358313</v>
       </c>
       <c r="F16" t="n">
-        <v>1902848.545769819</v>
+        <v>16614238.58561456</v>
       </c>
       <c r="G16" t="n">
-        <v>2063081.862944272</v>
+        <v>16968941.27807673</v>
       </c>
       <c r="H16" t="n">
-        <v>2208921.545407582</v>
+        <v>13332265.96733647</v>
       </c>
       <c r="I16" t="n">
-        <v>2366449.602899663</v>
+        <v>14356789.99061695</v>
       </c>
       <c r="J16" t="n">
-        <v>2517342.672897773</v>
+        <v>16989977.50911996</v>
       </c>
       <c r="K16" t="n">
-        <v>2669978.416541573</v>
+        <v>15907889.61259473</v>
       </c>
       <c r="L16" t="n">
-        <v>2825072.35148776</v>
+        <v>16452569.77666195</v>
       </c>
       <c r="M16" t="n">
-        <v>2975323.204102427</v>
+        <v>17806565.62717015</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7272254.3960091</v>
+        <v>4852940.710967928</v>
       </c>
       <c r="C17" t="n">
-        <v>8077562.806247492</v>
+        <v>4939013.700541041</v>
       </c>
       <c r="D17" t="n">
-        <v>8883761.96360784</v>
+        <v>5024827.859073174</v>
       </c>
       <c r="E17" t="n">
-        <v>9684896.23478234</v>
+        <v>5110749.11483806</v>
       </c>
       <c r="F17" t="n">
-        <v>10494043.13132718</v>
+        <v>5196350.771381592</v>
       </c>
       <c r="G17" t="n">
-        <v>11300832.36765388</v>
+        <v>5282055.835926367</v>
       </c>
       <c r="H17" t="n">
-        <v>12109138.37847034</v>
+        <v>5368416.735041226</v>
       </c>
       <c r="I17" t="n">
-        <v>12934952.86361819</v>
+        <v>5453979.490754345</v>
       </c>
       <c r="J17" t="n">
-        <v>13739280.91885447</v>
+        <v>5540049.887118159</v>
       </c>
       <c r="K17" t="n">
-        <v>14534607.83088973</v>
+        <v>5625815.410319652</v>
       </c>
       <c r="L17" t="n">
-        <v>15365757.35305077</v>
+        <v>5711842.343136673</v>
       </c>
       <c r="M17" t="n">
-        <v>16134512.87897274</v>
+        <v>5797758.957243261</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1296669.341208435</v>
+        <v>3220947.064506107</v>
       </c>
       <c r="C18" t="n">
-        <v>795769.6551510307</v>
+        <v>3589803.93585833</v>
       </c>
       <c r="D18" t="n">
-        <v>1542346.59676119</v>
+        <v>2974371.805769538</v>
       </c>
       <c r="E18" t="n">
-        <v>1170467.681509382</v>
+        <v>2860557.47814412</v>
       </c>
       <c r="F18" t="n">
-        <v>1276492.794744369</v>
+        <v>3239469.61275631</v>
       </c>
       <c r="G18" t="n">
-        <v>4024977.342839391</v>
+        <v>3026753.526990874</v>
       </c>
       <c r="H18" t="n">
-        <v>649771.0762765582</v>
+        <v>3641914.325688404</v>
       </c>
       <c r="I18" t="n">
-        <v>1401293.593213195</v>
+        <v>3724492.389236303</v>
       </c>
       <c r="J18" t="n">
-        <v>1533842.667503104</v>
+        <v>3970652.417150924</v>
       </c>
       <c r="K18" t="n">
-        <v>1498027.582194773</v>
+        <v>4645393.072044054</v>
       </c>
       <c r="L18" t="n">
-        <v>1044919.973128372</v>
+        <v>3519636.836737776</v>
       </c>
       <c r="M18" t="n">
-        <v>1281846.056564753</v>
+        <v>3978522.450617439</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-21989.7384798014</v>
+        <v>6837706.778550055</v>
       </c>
       <c r="C19" t="n">
-        <v>-155354.8593431275</v>
+        <v>4874903.173066276</v>
       </c>
       <c r="D19" t="n">
-        <v>56305.10017680921</v>
+        <v>6317112.98962344</v>
       </c>
       <c r="E19" t="n">
-        <v>-62856.94130430833</v>
+        <v>5235667.049012455</v>
       </c>
       <c r="F19" t="n">
-        <v>-235631.424048803</v>
+        <v>5813034.605128789</v>
       </c>
       <c r="G19" t="n">
-        <v>-91682.8504264292</v>
+        <v>3642335.974371667</v>
       </c>
       <c r="H19" t="n">
-        <v>-254097.624920422</v>
+        <v>5282989.981117216</v>
       </c>
       <c r="I19" t="n">
-        <v>-164219.1783350421</v>
+        <v>6806005.63832448</v>
       </c>
       <c r="J19" t="n">
-        <v>-251067.2403525748</v>
+        <v>4071555.489615567</v>
       </c>
       <c r="K19" t="n">
-        <v>-305352.9364887015</v>
+        <v>3648446.616578502</v>
       </c>
       <c r="L19" t="n">
-        <v>-264823.1988965646</v>
+        <v>4511751.808781281</v>
       </c>
       <c r="M19" t="n">
-        <v>-380120.4245485089</v>
+        <v>5421031.6191869</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1615879.08588839</v>
+        <v>2527788.94353187</v>
       </c>
       <c r="C20" t="n">
-        <v>1928629.750504174</v>
+        <v>3203272.43374511</v>
       </c>
       <c r="D20" t="n">
-        <v>2123869.396549048</v>
+        <v>3395612.580259889</v>
       </c>
       <c r="E20" t="n">
-        <v>2106792.906504745</v>
+        <v>3608194.816121263</v>
       </c>
       <c r="F20" t="n">
-        <v>2135176.276797364</v>
+        <v>2989548.860501119</v>
       </c>
       <c r="G20" t="n">
-        <v>2626538.643907822</v>
+        <v>3293188.785863583</v>
       </c>
       <c r="H20" t="n">
-        <v>1120685.372146993</v>
+        <v>4251355.069333688</v>
       </c>
       <c r="I20" t="n">
-        <v>2782283.57473103</v>
+        <v>4282690.408948254</v>
       </c>
       <c r="J20" t="n">
-        <v>1775564.110153366</v>
+        <v>1888758.182316909</v>
       </c>
       <c r="K20" t="n">
-        <v>2115408.078755989</v>
+        <v>2720896.044639093</v>
       </c>
       <c r="L20" t="n">
-        <v>2173621.337223956</v>
+        <v>3471852.409767485</v>
       </c>
       <c r="M20" t="n">
-        <v>2229663.042952207</v>
+        <v>2688289.3238801</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1630017.865262348</v>
+        <v>2825997.961230746</v>
       </c>
       <c r="C21" t="n">
-        <v>1174192.794279139</v>
+        <v>2286772.244963529</v>
       </c>
       <c r="D21" t="n">
-        <v>1160343.430841833</v>
+        <v>3486290.186057464</v>
       </c>
       <c r="E21" t="n">
-        <v>1804538.283146077</v>
+        <v>3109360.378543641</v>
       </c>
       <c r="F21" t="n">
-        <v>1298751.134531847</v>
+        <v>3285168.827302497</v>
       </c>
       <c r="G21" t="n">
-        <v>1231461.949980987</v>
+        <v>2630810.163405864</v>
       </c>
       <c r="H21" t="n">
-        <v>1139552.743394431</v>
+        <v>2454316.763699703</v>
       </c>
       <c r="I21" t="n">
-        <v>2009112.665443215</v>
+        <v>3125072.262626213</v>
       </c>
       <c r="J21" t="n">
-        <v>1365335.010602533</v>
+        <v>2474556.558359626</v>
       </c>
       <c r="K21" t="n">
-        <v>2019073.671141387</v>
+        <v>4134182.365405152</v>
       </c>
       <c r="L21" t="n">
-        <v>2178774.785720309</v>
+        <v>3247752.620206991</v>
       </c>
       <c r="M21" t="n">
-        <v>1334733.589819866</v>
+        <v>2455925.20737464</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437289.1023417144</v>
+        <v>10086858.60253665</v>
       </c>
       <c r="C22" t="n">
-        <v>437405.3361207301</v>
+        <v>12831589.64023515</v>
       </c>
       <c r="D22" t="n">
-        <v>437490.3274962773</v>
+        <v>13174583.59743547</v>
       </c>
       <c r="E22" t="n">
-        <v>437572.4132593377</v>
+        <v>11863063.60304296</v>
       </c>
       <c r="F22" t="n">
-        <v>437844.4560205364</v>
+        <v>12150624.73323177</v>
       </c>
       <c r="G22" t="n">
-        <v>437803.0930528213</v>
+        <v>10389985.8930813</v>
       </c>
       <c r="H22" t="n">
-        <v>437654.1387340522</v>
+        <v>8796113.494236626</v>
       </c>
       <c r="I22" t="n">
-        <v>437571.3236019549</v>
+        <v>13042741.83344034</v>
       </c>
       <c r="J22" t="n">
-        <v>437993.2139544805</v>
+        <v>13460053.46450315</v>
       </c>
       <c r="K22" t="n">
-        <v>437761.468652007</v>
+        <v>12846774.88482194</v>
       </c>
       <c r="L22" t="n">
-        <v>437754.9737301858</v>
+        <v>16355456.94179335</v>
       </c>
       <c r="M22" t="n">
-        <v>437923.0861123549</v>
+        <v>12716109.50069549</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5510.700296869178</v>
+        <v>7946970.262572762</v>
       </c>
       <c r="C23" t="n">
-        <v>5528.316319453013</v>
+        <v>9438374.325717175</v>
       </c>
       <c r="D23" t="n">
-        <v>5542.061267006671</v>
+        <v>8962728.087020501</v>
       </c>
       <c r="E23" t="n">
-        <v>5554.311774983528</v>
+        <v>8329866.748231818</v>
       </c>
       <c r="F23" t="n">
-        <v>5570.385809908273</v>
+        <v>8579330.114235079</v>
       </c>
       <c r="G23" t="n">
-        <v>5923.989496319485</v>
+        <v>6541920.993122393</v>
       </c>
       <c r="H23" t="n">
-        <v>5485.40032316584</v>
+        <v>6010890.792378057</v>
       </c>
       <c r="I23" t="n">
-        <v>5705.885498560201</v>
+        <v>6336495.88920038</v>
       </c>
       <c r="J23" t="n">
-        <v>5616.151008651258</v>
+        <v>6383221.57527311</v>
       </c>
       <c r="K23" t="n">
-        <v>5505.148117931683</v>
+        <v>6328186.190020347</v>
       </c>
       <c r="L23" t="n">
-        <v>5582.434904537231</v>
+        <v>7723463.723445408</v>
       </c>
       <c r="M23" t="n">
-        <v>5509.111276890242</v>
+        <v>9251950.7787342</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14042695.64664194</v>
+        <v>9097567.341129983</v>
       </c>
       <c r="C24" t="n">
-        <v>12604939.24631452</v>
+        <v>9561893.091530317</v>
       </c>
       <c r="D24" t="n">
-        <v>13409293.04059947</v>
+        <v>10185837.67497641</v>
       </c>
       <c r="E24" t="n">
-        <v>13729504.16704745</v>
+        <v>10328091.28074236</v>
       </c>
       <c r="F24" t="n">
-        <v>14245874.45589577</v>
+        <v>11959133.84900096</v>
       </c>
       <c r="G24" t="n">
-        <v>17378164.61454055</v>
+        <v>7848520.902839585</v>
       </c>
       <c r="H24" t="n">
-        <v>11628994.9137881</v>
+        <v>10484740.28354122</v>
       </c>
       <c r="I24" t="n">
-        <v>13706793.85408843</v>
+        <v>10850220.31128347</v>
       </c>
       <c r="J24" t="n">
-        <v>13899469.92542548</v>
+        <v>11726170.9494866</v>
       </c>
       <c r="K24" t="n">
-        <v>12272204.62543621</v>
+        <v>8894586.752586078</v>
       </c>
       <c r="L24" t="n">
-        <v>12211907.62690994</v>
+        <v>10204028.40034369</v>
       </c>
       <c r="M24" t="n">
-        <v>13000371.5733224</v>
+        <v>10579937.97505704</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2751105.927981628</v>
+        <v>4698471.784742956</v>
       </c>
       <c r="C25" t="n">
-        <v>2770878.603220003</v>
+        <v>6032598.16592891</v>
       </c>
       <c r="D25" t="n">
-        <v>2619906.399170807</v>
+        <v>6006251.858574186</v>
       </c>
       <c r="E25" t="n">
-        <v>3195441.841178948</v>
+        <v>5403387.763363141</v>
       </c>
       <c r="F25" t="n">
-        <v>2999593.274172908</v>
+        <v>6018095.824514055</v>
       </c>
       <c r="G25" t="n">
-        <v>3182749.605315741</v>
+        <v>4072339.371607216</v>
       </c>
       <c r="H25" t="n">
-        <v>1858576.627718244</v>
+        <v>5108741.402659493</v>
       </c>
       <c r="I25" t="n">
-        <v>3189498.395540168</v>
+        <v>6752179.498430458</v>
       </c>
       <c r="J25" t="n">
-        <v>2941467.179946365</v>
+        <v>5582429.840458241</v>
       </c>
       <c r="K25" t="n">
-        <v>3076147.797616915</v>
+        <v>4292714.264490696</v>
       </c>
       <c r="L25" t="n">
-        <v>3088283.479744727</v>
+        <v>5080463.243039099</v>
       </c>
       <c r="M25" t="n">
-        <v>3158508.30116793</v>
+        <v>6214082.089170514</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11413506.5743599</v>
+        <v>11539535.74166108</v>
       </c>
       <c r="C26" t="n">
-        <v>11716007.95355649</v>
+        <v>9721873.726977589</v>
       </c>
       <c r="D26" t="n">
-        <v>10987108.79291946</v>
+        <v>10938342.90760293</v>
       </c>
       <c r="E26" t="n">
-        <v>11150928.47558689</v>
+        <v>10167002.74978052</v>
       </c>
       <c r="F26" t="n">
-        <v>10932629.23477613</v>
+        <v>11010667.79409341</v>
       </c>
       <c r="G26" t="n">
-        <v>13047450.08504413</v>
+        <v>9401322.815358432</v>
       </c>
       <c r="H26" t="n">
-        <v>11238806.22431237</v>
+        <v>9892911.952118687</v>
       </c>
       <c r="I26" t="n">
-        <v>11706918.74491801</v>
+        <v>11071082.65099675</v>
       </c>
       <c r="J26" t="n">
-        <v>13585318.68444739</v>
+        <v>8890497.357837602</v>
       </c>
       <c r="K26" t="n">
-        <v>14928300.76714839</v>
+        <v>9037669.821237376</v>
       </c>
       <c r="L26" t="n">
-        <v>15707515.6603996</v>
+        <v>10675910.33285258</v>
       </c>
       <c r="M26" t="n">
-        <v>17284155.91744367</v>
+        <v>12290393.61051165</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13517787.25231058</v>
+        <v>4148131.456903169</v>
       </c>
       <c r="C27" t="n">
-        <v>14855058.97561805</v>
+        <v>3831920.098817094</v>
       </c>
       <c r="D27" t="n">
-        <v>14874710.51406449</v>
+        <v>3369844.003460244</v>
       </c>
       <c r="E27" t="n">
-        <v>15058179.29742827</v>
+        <v>3226588.500243838</v>
       </c>
       <c r="F27" t="n">
-        <v>16360510.03328491</v>
+        <v>4430343.460584017</v>
       </c>
       <c r="G27" t="n">
-        <v>23176609.39575771</v>
+        <v>2610944.709487238</v>
       </c>
       <c r="H27" t="n">
-        <v>10976117.19854169</v>
+        <v>4032654.298148276</v>
       </c>
       <c r="I27" t="n">
-        <v>11765959.78300146</v>
+        <v>4417063.194481187</v>
       </c>
       <c r="J27" t="n">
-        <v>17389127.65734861</v>
+        <v>3112234.689825426</v>
       </c>
       <c r="K27" t="n">
-        <v>15726525.55879068</v>
+        <v>2877247.207544742</v>
       </c>
       <c r="L27" t="n">
-        <v>17962491.72564751</v>
+        <v>2253169.70206634</v>
       </c>
       <c r="M27" t="n">
-        <v>18333956.44677334</v>
+        <v>3933569.262313008</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15580443.414003</v>
+        <v>10790249.54387155</v>
       </c>
       <c r="C28" t="n">
-        <v>17351282.80811032</v>
+        <v>8813721.463213835</v>
       </c>
       <c r="D28" t="n">
-        <v>19122270.79185291</v>
+        <v>8820114.292834014</v>
       </c>
       <c r="E28" t="n">
-        <v>20893233.94118055</v>
+        <v>8978810.662816828</v>
       </c>
       <c r="F28" t="n">
-        <v>22664038.41633067</v>
+        <v>12305032.40949814</v>
       </c>
       <c r="G28" t="n">
-        <v>24435120.48603132</v>
+        <v>9257191.914814826</v>
       </c>
       <c r="H28" t="n">
-        <v>26205556.73611118</v>
+        <v>11967378.01457918</v>
       </c>
       <c r="I28" t="n">
-        <v>27976891.64630311</v>
+        <v>10989343.38935507</v>
       </c>
       <c r="J28" t="n">
-        <v>29748152.73438244</v>
+        <v>11863722.21943159</v>
       </c>
       <c r="K28" t="n">
-        <v>31519027.01543397</v>
+        <v>8552972.879107105</v>
       </c>
       <c r="L28" t="n">
-        <v>33289671.60456522</v>
+        <v>11388458.2553005</v>
       </c>
       <c r="M28" t="n">
-        <v>35060244.19483615</v>
+        <v>14860449.90826083</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17461490.31369239</v>
+        <v>2501500.777290335</v>
       </c>
       <c r="C29" t="n">
-        <v>18397487.09552569</v>
+        <v>2605702.740501339</v>
       </c>
       <c r="D29" t="n">
-        <v>19333809.99131323</v>
+        <v>2709866.596137014</v>
       </c>
       <c r="E29" t="n">
-        <v>20269969.65298832</v>
+        <v>2814108.753819881</v>
       </c>
       <c r="F29" t="n">
-        <v>21205732.26132025</v>
+        <v>2918290.452798496</v>
       </c>
       <c r="G29" t="n">
-        <v>22141375.6691771</v>
+        <v>3022502.273423561</v>
       </c>
       <c r="H29" t="n">
-        <v>23077863.89967313</v>
+        <v>3126685.231508377</v>
       </c>
       <c r="I29" t="n">
-        <v>24014325.09040946</v>
+        <v>3230958.433328467</v>
       </c>
       <c r="J29" t="n">
-        <v>24950148.45982426</v>
+        <v>3335131.612797196</v>
       </c>
       <c r="K29" t="n">
-        <v>25886441.12258907</v>
+        <v>3439280.353919547</v>
       </c>
       <c r="L29" t="n">
-        <v>26822388.06407354</v>
+        <v>3543513.425516165</v>
       </c>
       <c r="M29" t="n">
-        <v>27759028.7339494</v>
+        <v>3647674.162275387</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48939974.67404806</v>
+        <v>702394.6216431439</v>
       </c>
       <c r="C30" t="n">
-        <v>44674033.15469029</v>
+        <v>701669.0822387976</v>
       </c>
       <c r="D30" t="n">
-        <v>51154247.60583345</v>
+        <v>719935.2710456537</v>
       </c>
       <c r="E30" t="n">
-        <v>55426318.51348738</v>
+        <v>734746.0574734234</v>
       </c>
       <c r="F30" t="n">
-        <v>52672252.98384329</v>
+        <v>934653.1118542762</v>
       </c>
       <c r="G30" t="n">
-        <v>45022911.09766829</v>
+        <v>712458.6856400762</v>
       </c>
       <c r="H30" t="n">
-        <v>45648742.59844904</v>
+        <v>727578.5216332875</v>
       </c>
       <c r="I30" t="n">
-        <v>47884006.28690816</v>
+        <v>744454.1064289829</v>
       </c>
       <c r="J30" t="n">
-        <v>50698186.69596404</v>
+        <v>815559.8781763132</v>
       </c>
       <c r="K30" t="n">
-        <v>45601152.55318467</v>
+        <v>760209.3635443127</v>
       </c>
       <c r="L30" t="n">
-        <v>41971278.23787477</v>
+        <v>755124.844006142</v>
       </c>
       <c r="M30" t="n">
-        <v>47872256.18037823</v>
+        <v>852070.3457919913</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42137827.42518177</v>
+        <v>552308.5647620995</v>
       </c>
       <c r="C31" t="n">
-        <v>50668692.42089787</v>
+        <v>750618.5811241827</v>
       </c>
       <c r="D31" t="n">
-        <v>47764789.78827116</v>
+        <v>760697.9582054017</v>
       </c>
       <c r="E31" t="n">
-        <v>53001909.57198338</v>
+        <v>826910.3349222563</v>
       </c>
       <c r="F31" t="n">
-        <v>46956934.83839498</v>
+        <v>754387.4107302695</v>
       </c>
       <c r="G31" t="n">
-        <v>45730739.98010919</v>
+        <v>526620.3698845939</v>
       </c>
       <c r="H31" t="n">
-        <v>38164701.04866104</v>
+        <v>761703.2332606884</v>
       </c>
       <c r="I31" t="n">
-        <v>43441975.30671579</v>
+        <v>898475.6315764338</v>
       </c>
       <c r="J31" t="n">
-        <v>51268701.81142262</v>
+        <v>631893.1291137431</v>
       </c>
       <c r="K31" t="n">
-        <v>39953699.7100049</v>
+        <v>614747.1805496181</v>
       </c>
       <c r="L31" t="n">
-        <v>39939463.83477841</v>
+        <v>638129.1853380502</v>
       </c>
       <c r="M31" t="n">
-        <v>44944757.31596132</v>
+        <v>562329.8932941739</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>795306.0074019111</v>
+        <v>1873339.976938604</v>
       </c>
       <c r="C32" t="n">
-        <v>985114.5538482682</v>
+        <v>2071856.014512214</v>
       </c>
       <c r="D32" t="n">
-        <v>1174923.328593186</v>
+        <v>2049615.666806179</v>
       </c>
       <c r="E32" t="n">
-        <v>1364732.093974628</v>
+        <v>1966936.037881525</v>
       </c>
       <c r="F32" t="n">
-        <v>1554540.852581913</v>
+        <v>2138304.92097892</v>
       </c>
       <c r="G32" t="n">
-        <v>1744349.609786493</v>
+        <v>1944683.303694968</v>
       </c>
       <c r="H32" t="n">
-        <v>1934158.372729859</v>
+        <v>2103065.271397841</v>
       </c>
       <c r="I32" t="n">
-        <v>2125886.239967364</v>
+        <v>2300703.052388125</v>
       </c>
       <c r="J32" t="n">
-        <v>2315827.650201128</v>
+        <v>2368802.072724988</v>
       </c>
       <c r="K32" t="n">
-        <v>2503782.248324658</v>
+        <v>2280078.599940879</v>
       </c>
       <c r="L32" t="n">
-        <v>2691672.038837619</v>
+        <v>2357094.858789838</v>
       </c>
       <c r="M32" t="n">
-        <v>2886465.45830082</v>
+        <v>2442910.921010323</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3933596.360361712</v>
+        <v>2280973.875059661</v>
       </c>
       <c r="C33" t="n">
-        <v>4165445.669332455</v>
+        <v>2302904.182645965</v>
       </c>
       <c r="D33" t="n">
-        <v>4129908.699034628</v>
+        <v>2324901.886538872</v>
       </c>
       <c r="E33" t="n">
-        <v>4172631.727490013</v>
+        <v>2346841.160095927</v>
       </c>
       <c r="F33" t="n">
-        <v>4358295.522298174</v>
+        <v>2368892.883692258</v>
       </c>
       <c r="G33" t="n">
-        <v>4332610.514556375</v>
+        <v>2390847.332901975</v>
       </c>
       <c r="H33" t="n">
-        <v>4368658.833976312</v>
+        <v>2412791.650409831</v>
       </c>
       <c r="I33" t="n">
-        <v>4434618.036385853</v>
+        <v>2434872.578075455</v>
       </c>
       <c r="J33" t="n">
-        <v>4694499.821302838</v>
+        <v>2456834.408830307</v>
       </c>
       <c r="K33" t="n">
-        <v>4788475.984581056</v>
+        <v>2478710.194563076</v>
       </c>
       <c r="L33" t="n">
-        <v>4593895.929613761</v>
+        <v>2500903.651762661</v>
       </c>
       <c r="M33" t="n">
-        <v>4731921.269156517</v>
+        <v>2522840.570236602</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10593179.23433856</v>
+        <v>2801213.213090619</v>
       </c>
       <c r="C34" t="n">
-        <v>8611260.795002677</v>
+        <v>1728162.619651427</v>
       </c>
       <c r="D34" t="n">
-        <v>14889980.80088843</v>
+        <v>2770615.420300039</v>
       </c>
       <c r="E34" t="n">
-        <v>13878358.94160099</v>
+        <v>2282157.77679368</v>
       </c>
       <c r="F34" t="n">
-        <v>17465351.13393652</v>
+        <v>2927476.642595072</v>
       </c>
       <c r="G34" t="n">
-        <v>16509959.94700427</v>
+        <v>2534682.476062287</v>
       </c>
       <c r="H34" t="n">
-        <v>17012092.81032181</v>
+        <v>2022018.330136855</v>
       </c>
       <c r="I34" t="n">
-        <v>12975037.91259661</v>
+        <v>2443165.528577652</v>
       </c>
       <c r="J34" t="n">
-        <v>14055444.49567114</v>
+        <v>2196746.593798483</v>
       </c>
       <c r="K34" t="n">
-        <v>16705930.11474213</v>
+        <v>2987539.728443754</v>
       </c>
       <c r="L34" t="n">
-        <v>15501798.57296051</v>
+        <v>3014918.006642321</v>
       </c>
       <c r="M34" t="n">
-        <v>16072084.86059099</v>
+        <v>2535551.578171532</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4628287.98458524</v>
+        <v>1571150.44788131</v>
       </c>
       <c r="C35" t="n">
-        <v>4708366.331501465</v>
+        <v>1610370.601486491</v>
       </c>
       <c r="D35" t="n">
-        <v>4788718.08183576</v>
+        <v>1633501.449087719</v>
       </c>
       <c r="E35" t="n">
-        <v>4868788.998163514</v>
+        <v>1571418.08041493</v>
       </c>
       <c r="F35" t="n">
-        <v>4948976.504063731</v>
+        <v>1587506.987542936</v>
       </c>
       <c r="G35" t="n">
-        <v>5028820.31252489</v>
+        <v>1570199.88444084</v>
       </c>
       <c r="H35" t="n">
-        <v>5108778.674193088</v>
+        <v>1617275.587273614</v>
       </c>
       <c r="I35" t="n">
-        <v>5189441.935966223</v>
+        <v>1706155.595193635</v>
       </c>
       <c r="J35" t="n">
-        <v>5269240.639866298</v>
+        <v>1606239.960221089</v>
       </c>
       <c r="K35" t="n">
-        <v>5349590.126631151</v>
+        <v>1615043.392865728</v>
       </c>
       <c r="L35" t="n">
-        <v>5429609.087774874</v>
+        <v>1613158.956651782</v>
       </c>
       <c r="M35" t="n">
-        <v>5509910.792052579</v>
+        <v>1723547.894740244</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1838961.642614614</v>
+        <v>1256412.119777525</v>
       </c>
       <c r="C36" t="n">
-        <v>2473218.113828966</v>
+        <v>1276886.194941529</v>
       </c>
       <c r="D36" t="n">
-        <v>2780721.991631805</v>
+        <v>1455185.792973946</v>
       </c>
       <c r="E36" t="n">
-        <v>2108643.346903016</v>
+        <v>1180686.860151955</v>
       </c>
       <c r="F36" t="n">
-        <v>1939994.59216579</v>
+        <v>1235471.982508673</v>
       </c>
       <c r="G36" t="n">
-        <v>2266147.424234974</v>
+        <v>1244118.498369541</v>
       </c>
       <c r="H36" t="n">
-        <v>2006374.068457765</v>
+        <v>1815485.110963007</v>
       </c>
       <c r="I36" t="n">
-        <v>2574849.723694657</v>
+        <v>1551091.263176743</v>
       </c>
       <c r="J36" t="n">
-        <v>2613837.619069035</v>
+        <v>1673076.453977951</v>
       </c>
       <c r="K36" t="n">
-        <v>2811310.297994663</v>
+        <v>1485933.86763464</v>
       </c>
       <c r="L36" t="n">
-        <v>3439509.464085585</v>
+        <v>1611224.991740626</v>
       </c>
       <c r="M36" t="n">
-        <v>2278302.403608156</v>
+        <v>1543043.97297902</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7342057.592943256</v>
+        <v>4799740.584463653</v>
       </c>
       <c r="C37" t="n">
-        <v>6890576.6366953</v>
+        <v>4125110.390006284</v>
       </c>
       <c r="D37" t="n">
-        <v>4726471.403908338</v>
+        <v>4970457.423092022</v>
       </c>
       <c r="E37" t="n">
-        <v>6320374.543332225</v>
+        <v>4444819.236174593</v>
       </c>
       <c r="F37" t="n">
-        <v>5104911.677957995</v>
+        <v>3904619.579107648</v>
       </c>
       <c r="G37" t="n">
-        <v>5816963.546140945</v>
+        <v>3534682.86792137</v>
       </c>
       <c r="H37" t="n">
-        <v>3819624.383650949</v>
+        <v>3457923.652059146</v>
       </c>
       <c r="I37" t="n">
-        <v>5483943.401742245</v>
+        <v>4497640.285984885</v>
       </c>
       <c r="J37" t="n">
-        <v>7048654.108424248</v>
+        <v>4183008.576811846</v>
       </c>
       <c r="K37" t="n">
-        <v>4275055.665459866</v>
+        <v>3675926.348034358</v>
       </c>
       <c r="L37" t="n">
-        <v>3865481.435216085</v>
+        <v>3671134.525200662</v>
       </c>
       <c r="M37" t="n">
-        <v>4528759.253467323</v>
+        <v>4489886.224909962</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2286234.064864038</v>
+        <v>3884467.953271756</v>
       </c>
       <c r="C38" t="n">
-        <v>2480673.049715582</v>
+        <v>4653626.797539788</v>
       </c>
       <c r="D38" t="n">
-        <v>3156270.57091101</v>
+        <v>4129243.199446197</v>
       </c>
       <c r="E38" t="n">
-        <v>3347175.488906188</v>
+        <v>3585121.287988095</v>
       </c>
       <c r="F38" t="n">
-        <v>3557699.875894765</v>
+        <v>4193955.782676082</v>
       </c>
       <c r="G38" t="n">
-        <v>2923360.896247467</v>
+        <v>3093500.482938169</v>
       </c>
       <c r="H38" t="n">
-        <v>3265591.569089905</v>
+        <v>4043507.640125723</v>
       </c>
       <c r="I38" t="n">
-        <v>4244936.281373138</v>
+        <v>3881878.683609825</v>
       </c>
       <c r="J38" t="n">
-        <v>4300754.548972335</v>
+        <v>4165680.866476148</v>
       </c>
       <c r="K38" t="n">
-        <v>1892838.283202406</v>
+        <v>4543121.669895329</v>
       </c>
       <c r="L38" t="n">
-        <v>2723554.438363074</v>
+        <v>4227308.281673028</v>
       </c>
       <c r="M38" t="n">
-        <v>3457959.003869691</v>
+        <v>4384021.207633691</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2267576.505090392</v>
+        <v>3918525.408238912</v>
       </c>
       <c r="C39" t="n">
-        <v>2688567.966281756</v>
+        <v>3329818.39704079</v>
       </c>
       <c r="D39" t="n">
-        <v>2154507.136638874</v>
+        <v>3473437.009736635</v>
       </c>
       <c r="E39" t="n">
-        <v>3351897.431885032</v>
+        <v>2602397.521198431</v>
       </c>
       <c r="F39" t="n">
-        <v>2973828.558682124</v>
+        <v>3087343.271949457</v>
       </c>
       <c r="G39" t="n">
-        <v>3147808.544284381</v>
+        <v>3064221.786694413</v>
       </c>
       <c r="H39" t="n">
-        <v>2491064.598054767</v>
+        <v>3509236.054225884</v>
       </c>
       <c r="I39" t="n">
-        <v>2308772.154677323</v>
+        <v>4201064.398684251</v>
       </c>
       <c r="J39" t="n">
-        <v>2973685.589325513</v>
+        <v>4569155.459405061</v>
       </c>
       <c r="K39" t="n">
-        <v>2335674.610544554</v>
+        <v>5447242.432452726</v>
       </c>
       <c r="L39" t="n">
-        <v>3970257.385427607</v>
+        <v>6428115.82954421</v>
       </c>
       <c r="M39" t="n">
-        <v>3099813.773749239</v>
+        <v>6928593.130299218</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10071181.83168996</v>
+        <v>5219766.31819068</v>
       </c>
       <c r="C40" t="n">
-        <v>9425753.431618752</v>
+        <v>5308061.640001609</v>
       </c>
       <c r="D40" t="n">
-        <v>12302955.73384454</v>
+        <v>5629325.456921609</v>
       </c>
       <c r="E40" t="n">
-        <v>12719740.80138569</v>
+        <v>5121904.177282945</v>
       </c>
       <c r="F40" t="n">
-        <v>11164698.8070769</v>
+        <v>5436532.315072833</v>
       </c>
       <c r="G40" t="n">
-        <v>11318969.31073138</v>
+        <v>4497938.398029619</v>
       </c>
       <c r="H40" t="n">
-        <v>9532407.74850378</v>
+        <v>4737574.2530952</v>
       </c>
       <c r="I40" t="n">
-        <v>7601616.726407005</v>
+        <v>5531813.470388139</v>
       </c>
       <c r="J40" t="n">
-        <v>12157444.77260816</v>
+        <v>5435487.958179155</v>
       </c>
       <c r="K40" t="n">
-        <v>12601698.36990386</v>
+        <v>5506363.382444169</v>
       </c>
       <c r="L40" t="n">
-        <v>12204496.47947657</v>
+        <v>5786790.522234509</v>
       </c>
       <c r="M40" t="n">
-        <v>16032881.45961454</v>
+        <v>5474260.465392884</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8315804.367786719</v>
+        <v>2966321.585022203</v>
       </c>
       <c r="C41" t="n">
-        <v>7364060.008083647</v>
+        <v>3224004.749068269</v>
       </c>
       <c r="D41" t="n">
-        <v>9054206.858876757</v>
+        <v>3249746.587250328</v>
       </c>
       <c r="E41" t="n">
-        <v>8627427.149625484</v>
+        <v>2851406.955024065</v>
       </c>
       <c r="F41" t="n">
-        <v>7943719.774831431</v>
+        <v>3734987.541797627</v>
       </c>
       <c r="G41" t="n">
-        <v>8183353.777539714</v>
+        <v>3227013.642318124</v>
       </c>
       <c r="H41" t="n">
-        <v>6187115.392599428</v>
+        <v>2400616.197309772</v>
       </c>
       <c r="I41" t="n">
-        <v>5440441.440687597</v>
+        <v>3214358.396590879</v>
       </c>
       <c r="J41" t="n">
-        <v>5815132.941304485</v>
+        <v>3722365.772555564</v>
       </c>
       <c r="K41" t="n">
-        <v>5833778.135003489</v>
+        <v>2969884.305542378</v>
       </c>
       <c r="L41" t="n">
-        <v>5811337.226138019</v>
+        <v>3318967.760369914</v>
       </c>
       <c r="M41" t="n">
-        <v>7202307.835234088</v>
+        <v>3376807.301155113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10729547.65872989</v>
+        <v>4268254.215878023</v>
       </c>
       <c r="C42" t="n">
-        <v>9535312.173832048</v>
+        <v>4842744.072509331</v>
       </c>
       <c r="D42" t="n">
-        <v>10112197.92708436</v>
+        <v>4592604.540568161</v>
       </c>
       <c r="E42" t="n">
-        <v>10666352.63581219</v>
+        <v>4477127.848675904</v>
       </c>
       <c r="F42" t="n">
-        <v>11046292.47838974</v>
+        <v>4255789.810471447</v>
       </c>
       <c r="G42" t="n">
-        <v>12366400.35702754</v>
+        <v>3402924.064855716</v>
       </c>
       <c r="H42" t="n">
-        <v>7941177.306499962</v>
+        <v>3693260.696233939</v>
       </c>
       <c r="I42" t="n">
-        <v>10584145.6442556</v>
+        <v>4089173.105581873</v>
       </c>
       <c r="J42" t="n">
-        <v>11086625.83611844</v>
+        <v>4117356.85386187</v>
       </c>
       <c r="K42" t="n">
-        <v>11819008.28912257</v>
+        <v>4353024.92269244</v>
       </c>
       <c r="L42" t="n">
-        <v>8851181.917386293</v>
+        <v>4381398.906318685</v>
       </c>
       <c r="M42" t="n">
-        <v>10173932.36144667</v>
+        <v>4427422.484049305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5996918.647018485</v>
+        <v>3105319.695520656</v>
       </c>
       <c r="C43" t="n">
-        <v>5025332.461919735</v>
+        <v>2991060.963711828</v>
       </c>
       <c r="D43" t="n">
-        <v>6446685.60153168</v>
+        <v>3587123.061761316</v>
       </c>
       <c r="E43" t="n">
-        <v>6410758.138976378</v>
+        <v>3795973.788377101</v>
       </c>
       <c r="F43" t="n">
-        <v>5790571.788791238</v>
+        <v>4229901.776772046</v>
       </c>
       <c r="G43" t="n">
-        <v>6344610.162917851</v>
+        <v>2774016.371432951</v>
       </c>
       <c r="H43" t="n">
-        <v>4726393.180659629</v>
+        <v>2870215.717966491</v>
       </c>
       <c r="I43" t="n">
-        <v>5776833.646127638</v>
+        <v>4030528.501774108</v>
       </c>
       <c r="J43" t="n">
-        <v>7585128.085824775</v>
+        <v>3954163.067427441</v>
       </c>
       <c r="K43" t="n">
-        <v>6180539.643592426</v>
+        <v>3745312.325467322</v>
       </c>
       <c r="L43" t="n">
-        <v>4973941.606501149</v>
+        <v>3631697.029950185</v>
       </c>
       <c r="M43" t="n">
-        <v>5892063.953616271</v>
+        <v>3730076.794905152</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15514607.68325805</v>
+        <v>4823727.876304438</v>
       </c>
       <c r="C44" t="n">
-        <v>17975126.26678004</v>
+        <v>5590187.801235141</v>
       </c>
       <c r="D44" t="n">
-        <v>17339083.11256205</v>
+        <v>5065904.089105346</v>
       </c>
       <c r="E44" t="n">
-        <v>17307874.1602466</v>
+        <v>5100637.864270657</v>
       </c>
       <c r="F44" t="n">
-        <v>16685460.09763679</v>
+        <v>5960386.790545008</v>
       </c>
       <c r="G44" t="n">
-        <v>18373658.18616901</v>
+        <v>4538096.758950621</v>
       </c>
       <c r="H44" t="n">
-        <v>15877294.35874526</v>
+        <v>4700658.801904599</v>
       </c>
       <c r="I44" t="n">
-        <v>17639263.32068627</v>
+        <v>5478802.839274358</v>
       </c>
       <c r="J44" t="n">
-        <v>17347166.20862504</v>
+        <v>4905464.432273682</v>
       </c>
       <c r="K44" t="n">
-        <v>16153926.91063561</v>
+        <v>4899719.26801156</v>
       </c>
       <c r="L44" t="n">
-        <v>16519034.7865</v>
+        <v>5327458.502682728</v>
       </c>
       <c r="M44" t="n">
-        <v>15899023.26407421</v>
+        <v>6014995.333481752</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6146704.969022733</v>
+        <v>3467314.028864325</v>
       </c>
       <c r="C45" t="n">
-        <v>5058605.813062805</v>
+        <v>3858729.152599668</v>
       </c>
       <c r="D45" t="n">
-        <v>4957470.676447019</v>
+        <v>3086908.68119589</v>
       </c>
       <c r="E45" t="n">
-        <v>4664275.003145508</v>
+        <v>3687794.005652131</v>
       </c>
       <c r="F45" t="n">
-        <v>4643851.869868875</v>
+        <v>3574884.415774896</v>
       </c>
       <c r="G45" t="n">
-        <v>5987822.426410923</v>
+        <v>2862814.132633194</v>
       </c>
       <c r="H45" t="n">
-        <v>4137883.072558655</v>
+        <v>3228297.165072306</v>
       </c>
       <c r="I45" t="n">
-        <v>5605636.306939997</v>
+        <v>3700028.847072779</v>
       </c>
       <c r="J45" t="n">
-        <v>6077218.195994914</v>
+        <v>4013274.058804873</v>
       </c>
       <c r="K45" t="n">
-        <v>4788178.725928777</v>
+        <v>3829170.139732009</v>
       </c>
       <c r="L45" t="n">
-        <v>4614655.51748664</v>
+        <v>3424903.349994048</v>
       </c>
       <c r="M45" t="n">
-        <v>3957448.31359687</v>
+        <v>3840076.056448434</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14794003.05114576</v>
+        <v>2091107.690337287</v>
       </c>
       <c r="C46" t="n">
-        <v>10869750.75545988</v>
+        <v>2214627.974474221</v>
       </c>
       <c r="D46" t="n">
-        <v>11967595.29403836</v>
+        <v>2469662.077220117</v>
       </c>
       <c r="E46" t="n">
-        <v>12698531.12133052</v>
+        <v>1880594.687962055</v>
       </c>
       <c r="F46" t="n">
-        <v>10550720.20647408</v>
+        <v>2037179.722425859</v>
       </c>
       <c r="G46" t="n">
-        <v>12534632.75003594</v>
+        <v>1672371.960015783</v>
       </c>
       <c r="H46" t="n">
-        <v>11015864.94566779</v>
+        <v>1893903.40498718</v>
       </c>
       <c r="I46" t="n">
-        <v>14447359.53766378</v>
+        <v>2666458.31051397</v>
       </c>
       <c r="J46" t="n">
-        <v>11784682.7874679</v>
+        <v>1914509.782965221</v>
       </c>
       <c r="K46" t="n">
-        <v>14767411.37231679</v>
+        <v>2109920.953498217</v>
       </c>
       <c r="L46" t="n">
-        <v>11291892.28308103</v>
+        <v>1999541.185601657</v>
       </c>
       <c r="M46" t="n">
-        <v>14869732.22967491</v>
+        <v>2040243.36170856</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2289295.115240297</v>
+        <v>1678019.242512772</v>
       </c>
       <c r="C47" t="n">
-        <v>2379438.220939694</v>
+        <v>1688283.847203017</v>
       </c>
       <c r="D47" t="n">
-        <v>2469581.10326534</v>
+        <v>1698541.193383311</v>
       </c>
       <c r="E47" t="n">
-        <v>2559679.739272526</v>
+        <v>1708703.44667933</v>
       </c>
       <c r="F47" t="n">
-        <v>2649869.221568587</v>
+        <v>1718998.322903787</v>
       </c>
       <c r="G47" t="n">
-        <v>2739988.4315582</v>
+        <v>1729260.559441125</v>
       </c>
       <c r="H47" t="n">
-        <v>2830142.863813641</v>
+        <v>1739498.629127546</v>
       </c>
       <c r="I47" t="n">
-        <v>2920263.797734962</v>
+        <v>1749777.911243468</v>
       </c>
       <c r="J47" t="n">
-        <v>3010489.535183367</v>
+        <v>1760047.125686886</v>
       </c>
       <c r="K47" t="n">
-        <v>3100599.272274655</v>
+        <v>1770226.89993192</v>
       </c>
       <c r="L47" t="n">
-        <v>3190681.105106841</v>
+        <v>1780358.722032557</v>
       </c>
       <c r="M47" t="n">
-        <v>3280860.600733228</v>
+        <v>1790713.17321499</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>745575.0364791593</v>
+        <v>5613753.855110632</v>
       </c>
       <c r="C48" t="n">
-        <v>741232.0134903305</v>
+        <v>6224384.957628815</v>
       </c>
       <c r="D48" t="n">
-        <v>737333.0101924076</v>
+        <v>6030425.546760515</v>
       </c>
       <c r="E48" t="n">
-        <v>761425.5911797446</v>
+        <v>5489292.354814288</v>
       </c>
       <c r="F48" t="n">
-        <v>778753.797114851</v>
+        <v>5985916.858520785</v>
       </c>
       <c r="G48" t="n">
-        <v>1024821.55351486</v>
+        <v>5770460.094075823</v>
       </c>
       <c r="H48" t="n">
-        <v>752563.9134644076</v>
+        <v>5422922.035950992</v>
       </c>
       <c r="I48" t="n">
-        <v>767670.5770275597</v>
+        <v>5966008.730529242</v>
       </c>
       <c r="J48" t="n">
-        <v>788815.7049641435</v>
+        <v>6324003.389394567</v>
       </c>
       <c r="K48" t="n">
-        <v>869289.7777955618</v>
+        <v>5433673.61605522</v>
       </c>
       <c r="L48" t="n">
-        <v>805961.109617214</v>
+        <v>5543288.404913943</v>
       </c>
       <c r="M48" t="n">
-        <v>799159.9202947284</v>
+        <v>6305254.487284702</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>618675.0863358581</v>
+        <v>621453.9473662825</v>
       </c>
       <c r="C49" t="n">
-        <v>566637.9001025029</v>
+        <v>796878.59247812</v>
       </c>
       <c r="D49" t="n">
-        <v>767665.7228585097</v>
+        <v>554296.0717910922</v>
       </c>
       <c r="E49" t="n">
-        <v>776941.3093189454</v>
+        <v>619609.1308327195</v>
       </c>
       <c r="F49" t="n">
-        <v>845011.937074392</v>
+        <v>736994.2839457658</v>
       </c>
       <c r="G49" t="n">
-        <v>757487.8449684366</v>
+        <v>613711.285852759</v>
       </c>
       <c r="H49" t="n">
-        <v>521717.9896320067</v>
+        <v>821938.2210220564</v>
       </c>
       <c r="I49" t="n">
-        <v>743751.1058983227</v>
+        <v>1015152.870100159</v>
       </c>
       <c r="J49" t="n">
-        <v>904044.0301281656</v>
+        <v>961593.5409105546</v>
       </c>
       <c r="K49" t="n">
-        <v>637555.0632501554</v>
+        <v>751639.8218073264</v>
       </c>
       <c r="L49" t="n">
-        <v>606311.9690953158</v>
+        <v>815212.3943099903</v>
       </c>
       <c r="M49" t="n">
-        <v>642485.5895475917</v>
+        <v>805586.8115242964</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1630327.714927386</v>
+        <v>2852385.872186954</v>
       </c>
       <c r="C50" t="n">
-        <v>1670498.42210208</v>
+        <v>2947246.651199072</v>
       </c>
       <c r="D50" t="n">
-        <v>1909670.104242041</v>
+        <v>3042130.335242884</v>
       </c>
       <c r="E50" t="n">
-        <v>1858204.617431817</v>
+        <v>3137064.528896945</v>
       </c>
       <c r="F50" t="n">
-        <v>1724739.969860065</v>
+        <v>3232005.580347336</v>
       </c>
       <c r="G50" t="n">
-        <v>1944362.036614378</v>
+        <v>3326801.807466735</v>
       </c>
       <c r="H50" t="n">
-        <v>1667560.9244843</v>
+        <v>3421763.969001483</v>
       </c>
       <c r="I50" t="n">
-        <v>1856917.174610733</v>
+        <v>3516721.040139878</v>
       </c>
       <c r="J50" t="n">
-        <v>2091313.315235295</v>
+        <v>3611690.213693564</v>
       </c>
       <c r="K50" t="n">
-        <v>2155454.39279553</v>
+        <v>3706556.168076594</v>
       </c>
       <c r="L50" t="n">
-        <v>2033148.316200949</v>
+        <v>3801574.114541975</v>
       </c>
       <c r="M50" t="n">
-        <v>2100133.591765059</v>
+        <v>3896337.199480324</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2195832.031946337</v>
+        <v>2960297.514010985</v>
       </c>
       <c r="C51" t="n">
-        <v>2206239.437904657</v>
+        <v>3104379.859684705</v>
       </c>
       <c r="D51" t="n">
-        <v>2216703.761171272</v>
+        <v>3116389.969575285</v>
       </c>
       <c r="E51" t="n">
-        <v>2227243.407583513</v>
+        <v>3217774.262362066</v>
       </c>
       <c r="F51" t="n">
-        <v>2237715.800827341</v>
+        <v>3263616.975876167</v>
       </c>
       <c r="G51" t="n">
-        <v>2248315.746505144</v>
+        <v>3289572.731311918</v>
       </c>
       <c r="H51" t="n">
-        <v>2258804.24642914</v>
+        <v>3536159.226144616</v>
       </c>
       <c r="I51" t="n">
-        <v>2269282.292477454</v>
+        <v>3597225.10685972</v>
       </c>
       <c r="J51" t="n">
-        <v>2279915.150565674</v>
+        <v>3801225.088346335</v>
       </c>
       <c r="K51" t="n">
-        <v>2290411.523434495</v>
+        <v>3745120.177887943</v>
       </c>
       <c r="L51" t="n">
-        <v>2300811.88729224</v>
+        <v>3802363.321090522</v>
       </c>
       <c r="M51" t="n">
-        <v>2311572.840555632</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2132135.727222544</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2708462.392109282</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1707463.728123822</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2682150.984194688</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2183252.530027733</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2748240.099388241</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2340005.642012539</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1957157.821942837</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2282538.492588603</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2141031.235168302</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2721644.559085479</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2756528.501139505</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1195048.203341248</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1195031.112964808</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1195320.855662926</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1195522.386356997</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1195436.193453076</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1195656.818101126</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1195742.041311233</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1196059.153703505</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1196464.801083027</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1196223.735833741</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1196437.388721396</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1196582.216707383</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1569061.416892538</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1296946.298590364</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1322270.947189665</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1498965.604614541</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1220874.456220531</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1275933.733336016</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1283018.51473907</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1847127.886569501</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1598889.75650634</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1719036.666235854</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1544754.349913726</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1677887.961366796</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4192859.259397729</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4528786.914283219</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3875720.59899734</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4817773.568764157</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4397538.684903873</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3972679.141100341</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3683168.02278445</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3623912.154003776</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4752663.304654507</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4430534.632996919</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3776007.390327673</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3792708.790458839</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3954416.583400023</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3886908.531543531</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4616844.499251728</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4150975.55154567</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3614046.756093333</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4212586.536191181</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3149887.31277189</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4060822.799658069</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3888075.255501392</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4172301.373530841</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4560433.062844862</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4259918.926170852</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>6568471.568103005</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6374443.119303668</v>
-      </c>
-      <c r="D57" t="n">
-        <v>6308276.132001067</v>
-      </c>
-      <c r="E57" t="n">
-        <v>7012998.149799986</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5414101.574728847</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5681828.173336214</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5271329.949371684</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5426570.568558982</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6735589.801383411</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6821686.571865577</v>
-      </c>
-      <c r="L57" t="n">
-        <v>7184961.74214149</v>
-      </c>
-      <c r="M57" t="n">
-        <v>7428688.351084806</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5184308.318355374</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5446193.829700295</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5561388.753480486</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5908287.662359945</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5424533.713167546</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5761400.495976725</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4841377.206462136</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5100009.439746829</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5915212.891159697</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5840186.717856186</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5929129.592829049</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6229735.941151975</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3179913.668415282</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3002850.185518034</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3287553.273698005</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3298323.216815308</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2902499.197434505</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3817966.662007581</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3329659.437516117</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2408463.733476102</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3263206.521176767</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3805033.847651933</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3009909.327883009</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3370941.155729667</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4232441.980256281</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4235000.070216944</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4774552.036070464</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4782486.444767768</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4526395.837815318</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4249318.030192782</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3577746.594842672</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3783109.95953497</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4266198.547160597</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4094878.52744627</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4381970.21149854</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4493150.389842051</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3006786.676860052</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3019073.005062121</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2908877.561272399</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3541429.647100039</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3749500.984414107</v>
-      </c>
-      <c r="G61" t="n">
-        <v>4204884.902434098</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2724057.62651564</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2854344.36407263</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4035363.551900985</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3959736.646470056</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3737657.950263667</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3606989.812161289</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6622015.863560729</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6044811.348559867</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6656040.656505616</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6383277.162360544</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6213000.904410775</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6933275.009671302</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5458379.086340358</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5760991.620554924</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6416425.913069448</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5797248.268032447</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6103261.889592629</v>
-      </c>
-      <c r="M62" t="n">
-        <v>7022213.452837409</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3656091.555709466</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3614177.568212812</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3968949.83910755</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3203824.733579375</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3821582.510188608</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3710525.969752887</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3029757.242953402</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3432502.599994929</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3943676.063935895</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4279948.067433521</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4088761.903951231</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3696125.318054924</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2087750.890289756</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2090776.467885119</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2210707.110907192</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2468653.378512755</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1879933.869638238</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2037912.55167711</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1669779.854809035</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1894125.103802664</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2660253.323277295</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1911473.279112431</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2109909.601406867</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1998481.60234576</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1685244.535328521</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1696808.667868763</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1708445.999601092</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1720076.262569353</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1731611.520475916</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1743279.363721146</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1754914.536422548</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1766525.55048721</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1778177.745368619</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1789819.825082924</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1801372.497542458</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1812877.359895059</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5035789.441679758</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5290918.365074185</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5879349.657663669</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5802932.459668407</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5339233.467740255</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5809871.26427611</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5663813.105978233</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5434535.054188539</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5919624.934994658</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6331573.050871533</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5558414.416040262</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5559083.380538639</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>705961.902361674</v>
-      </c>
-      <c r="C67" t="n">
-        <v>680041.781356071</v>
-      </c>
-      <c r="D67" t="n">
-        <v>842685.8112216642</v>
-      </c>
-      <c r="E67" t="n">
-        <v>607511.5347664086</v>
-      </c>
-      <c r="F67" t="n">
-        <v>676291.5699333986</v>
-      </c>
-      <c r="G67" t="n">
-        <v>786207.9497101923</v>
-      </c>
-      <c r="H67" t="n">
-        <v>665504.1535893965</v>
-      </c>
-      <c r="I67" t="n">
-        <v>866850.2343946343</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1047272.892681035</v>
-      </c>
-      <c r="K67" t="n">
-        <v>985746.7121750503</v>
-      </c>
-      <c r="L67" t="n">
-        <v>775831.8365419114</v>
-      </c>
-      <c r="M67" t="n">
-        <v>836147.2689752006</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2871894.167887718</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2979355.002495492</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3086757.883407326</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3194190.208807571</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3301684.480115662</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3409185.066490996</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3516506.543758312</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3624036.14307279</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3731555.894908562</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3839088.206861144</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3946492.064898806</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4054085.083104792</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3081051.232384027</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3212568.282015257</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3397438.85408183</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3430717.450507499</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3561675.454406137</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3631525.877090097</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3678356.046532543</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3974262.429745289</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4073637.555209278</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4318505.669091371</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4284269.747816379</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4358926.334596195</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7526067.592906708</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7582124.528857214</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7638610.563776701</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7694624.584513735</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7750699.82499876</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7806953.758638888</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7862879.35198339</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7919137.115215766</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7975146.911980339</v>
-      </c>
-      <c r="K70" t="n">
-        <v>8031621.559561647</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8087650.65284864</v>
-      </c>
-      <c r="M70" t="n">
-        <v>8144096.352302261</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>17925788.43008991</v>
-      </c>
-      <c r="C71" t="n">
-        <v>19518459.12293693</v>
-      </c>
-      <c r="D71" t="n">
-        <v>21040501.5138126</v>
-      </c>
-      <c r="E71" t="n">
-        <v>21481755.53254576</v>
-      </c>
-      <c r="F71" t="n">
-        <v>24291570.65601872</v>
-      </c>
-      <c r="G71" t="n">
-        <v>46578664.26581934</v>
-      </c>
-      <c r="H71" t="n">
-        <v>14758164.44014739</v>
-      </c>
-      <c r="I71" t="n">
-        <v>25991753.70486526</v>
-      </c>
-      <c r="J71" t="n">
-        <v>25272681.20420006</v>
-      </c>
-      <c r="K71" t="n">
-        <v>28104680.17355965</v>
-      </c>
-      <c r="L71" t="n">
-        <v>32814503.41274518</v>
-      </c>
-      <c r="M71" t="n">
-        <v>30861394.31993654</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4085484.12927899</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2756436.10968441</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3712423.828645953</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1733187.241823062</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4744216.227185164</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2601736.373921442</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2377033.782392405</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4486293.444673187</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5003812.380591944</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3604854.98990829</v>
-      </c>
-      <c r="L72" t="n">
-        <v>8474123.836231278</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2207580.352312879</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9094730.232236817</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9206727.69965639</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9318774.403177034</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9431363.07408992</v>
-      </c>
-      <c r="F73" t="n">
-        <v>9542811.331375262</v>
-      </c>
-      <c r="G73" t="n">
-        <v>9655561.251572279</v>
-      </c>
-      <c r="H73" t="n">
-        <v>9767307.114825072</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9880596.07027377</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9992904.910145208</v>
-      </c>
-      <c r="K73" t="n">
-        <v>10103885.99232913</v>
-      </c>
-      <c r="L73" t="n">
-        <v>10216525.37154391</v>
-      </c>
-      <c r="M73" t="n">
-        <v>10327835.79344098</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19568757.08320315</v>
-      </c>
-      <c r="C74" t="n">
-        <v>19167590.94569771</v>
-      </c>
-      <c r="D74" t="n">
-        <v>22724223.87874992</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20800990.3478215</v>
-      </c>
-      <c r="F74" t="n">
-        <v>21156700.69249684</v>
-      </c>
-      <c r="G74" t="n">
-        <v>28348913.47145155</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15581897.69963224</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19896143.07739391</v>
-      </c>
-      <c r="J74" t="n">
-        <v>20960324.41175745</v>
-      </c>
-      <c r="K74" t="n">
-        <v>20755437.41266527</v>
-      </c>
-      <c r="L74" t="n">
-        <v>19976442.49446072</v>
-      </c>
-      <c r="M74" t="n">
-        <v>22913459.14479299</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>26599231.947389</v>
-      </c>
-      <c r="C75" t="n">
-        <v>28435340.30815798</v>
-      </c>
-      <c r="D75" t="n">
-        <v>27490647.33611587</v>
-      </c>
-      <c r="E75" t="n">
-        <v>27251403.82065833</v>
-      </c>
-      <c r="F75" t="n">
-        <v>27621024.75241179</v>
-      </c>
-      <c r="G75" t="n">
-        <v>37628901.05631763</v>
-      </c>
-      <c r="H75" t="n">
-        <v>22143918.78359291</v>
-      </c>
-      <c r="I75" t="n">
-        <v>22609214.81036898</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30751841.23038689</v>
-      </c>
-      <c r="K75" t="n">
-        <v>30271287.1974808</v>
-      </c>
-      <c r="L75" t="n">
-        <v>34076633.27151398</v>
-      </c>
-      <c r="M75" t="n">
-        <v>35458965.95414983</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>15580443.414003</v>
-      </c>
-      <c r="C76" t="n">
-        <v>17351282.80811032</v>
-      </c>
-      <c r="D76" t="n">
-        <v>19122270.79185291</v>
-      </c>
-      <c r="E76" t="n">
-        <v>20893233.94118055</v>
-      </c>
-      <c r="F76" t="n">
-        <v>22664038.41633067</v>
-      </c>
-      <c r="G76" t="n">
-        <v>24435120.48603132</v>
-      </c>
-      <c r="H76" t="n">
-        <v>26205556.73611118</v>
-      </c>
-      <c r="I76" t="n">
-        <v>27976891.64630311</v>
-      </c>
-      <c r="J76" t="n">
-        <v>29748152.73438244</v>
-      </c>
-      <c r="K76" t="n">
-        <v>31519027.01543397</v>
-      </c>
-      <c r="L76" t="n">
-        <v>33289671.60456522</v>
-      </c>
-      <c r="M76" t="n">
-        <v>35060244.19483615</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17487293.48326958</v>
-      </c>
-      <c r="C77" t="n">
-        <v>18412427.31989763</v>
-      </c>
-      <c r="D77" t="n">
-        <v>19337898.65644773</v>
-      </c>
-      <c r="E77" t="n">
-        <v>20263203.43959355</v>
-      </c>
-      <c r="F77" t="n">
-        <v>21188121.95013668</v>
-      </c>
-      <c r="G77" t="n">
-        <v>22112952.14900678</v>
-      </c>
-      <c r="H77" t="n">
-        <v>23038471.43644904</v>
-      </c>
-      <c r="I77" t="n">
-        <v>23964138.41738109</v>
-      </c>
-      <c r="J77" t="n">
-        <v>24889108.66039072</v>
-      </c>
-      <c r="K77" t="n">
-        <v>25814545.73771149</v>
-      </c>
-      <c r="L77" t="n">
-        <v>26739638.72908311</v>
-      </c>
-      <c r="M77" t="n">
-        <v>27665422.58638297</v>
+        <v>3895325.162995243</v>
       </c>
     </row>
   </sheetData>
